--- a/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-01-08-21.xlsx
+++ b/LISTA_DE_MATERIAIS/LISTA DE MATERIAIS SEMÁFARO-01-08-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oinetsrv\Google Drive\PROJETOS\2020 - 1 - CONTROLTECH\20 - PROJETO DISPLAY RF433MHZ\display_remoto_p10_arduino_RF_433MHZ\LISTA_DE_MATERIAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03E7E97-6EFA-4C62-B97C-D39D7127AE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116835F-D5A3-4E8B-87C8-811AFF5EFFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="24" windowWidth="17100" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -846,8 +846,8 @@
   </sheetPr>
   <dimension ref="B1:H957"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
